--- a/config/report_requirenment.xlsx
+++ b/config/report_requirenment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880"/>
+    <workbookView windowWidth="28800" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="report_requirenment" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="参考文献匹配规则" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report_requirenment!$A$1:$P$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report_requirenment!$A$1:$P$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'reference-fixed'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="520">
   <si>
     <t>产品名称</t>
   </si>
@@ -753,6 +753,270 @@
     <t>2025.04.23</t>
   </si>
   <si>
+    <t>tOncoPro_XW0248_v3.0.docx</t>
+  </si>
+  <si>
+    <t>2025.04.28</t>
+  </si>
+  <si>
+    <t>HRD Complete（组织）</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW6701_v3.0.docx</t>
+  </si>
+  <si>
+    <t>2025.04.30</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW6701_v4.0.docx</t>
+  </si>
+  <si>
+    <t>2025.05.07</t>
+  </si>
+  <si>
+    <t>XW4303</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW4303_v1.0.docx</t>
+  </si>
+  <si>
+    <t>2025.05.08</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW6003_v2.0.docx</t>
+  </si>
+  <si>
+    <t>2025.05.14</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>WES（血液）</t>
+  </si>
+  <si>
+    <t>XW3906</t>
+  </si>
+  <si>
+    <t>gWES_XW3906_v1.0.docx</t>
+  </si>
+  <si>
+    <t>XW3907</t>
+  </si>
+  <si>
+    <t>gWES_XW3907_v1.0.docx</t>
+  </si>
+  <si>
+    <t>XW0294</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW0294_v1.0.docx</t>
+  </si>
+  <si>
+    <t>2025.06.17</t>
+  </si>
+  <si>
+    <t>gMyeloid_MEN1_XW5101_v3.0.docx</t>
+  </si>
+  <si>
+    <t>2025.06.24</t>
+  </si>
+  <si>
+    <t>gMyeloid_XW5101_v5.0.docx</t>
+  </si>
+  <si>
+    <t>Myeloid 59基因</t>
+  </si>
+  <si>
+    <t>gMyeloid_59_XW5101_v2.0.docx</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW4303_v1.1.docx</t>
+  </si>
+  <si>
+    <t>2025.07.02</t>
+  </si>
+  <si>
+    <t>MRD_v1.2.docx</t>
+  </si>
+  <si>
+    <t>2025.07.09</t>
+  </si>
+  <si>
+    <t>gLC10_XW4205_v3.0.docx</t>
+  </si>
+  <si>
+    <t>2025.07.17</t>
+  </si>
+  <si>
+    <t>tLC10_XW4205_v1.0.docx</t>
+  </si>
+  <si>
+    <t>MRD_v1.3.docx</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW6701_v5.0.docx</t>
+  </si>
+  <si>
+    <t>2025.07.29</t>
+  </si>
+  <si>
+    <t>gMyeloid_MEN1_XW5101_v4.0.docx</t>
+  </si>
+  <si>
+    <t>2025.07.30</t>
+  </si>
+  <si>
+    <t>gMyeloid_XW5101_v6.0.docx</t>
+  </si>
+  <si>
+    <t>gMyeloid_59_XW5101_v3.0.docx</t>
+  </si>
+  <si>
+    <t>XW4901</t>
+  </si>
+  <si>
+    <t>MRD_XW4901_v1.0.docx</t>
+  </si>
+  <si>
+    <t>2025.07.31</t>
+  </si>
+  <si>
+    <t>gLC10_XW4205_v4.0.docx</t>
+  </si>
+  <si>
+    <t>2025.08.26</t>
+  </si>
+  <si>
+    <t>tLC10_XW4205_v2.0.docx</t>
+  </si>
+  <si>
+    <t>tMTAP_XW1403_v2.0.docx</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW1402_v4.0.docx</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW1404_v3.0.docx</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW1405_v3.0.docx</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW6003_v3.0.docx</t>
+  </si>
+  <si>
+    <t>2025.09.11</t>
+  </si>
+  <si>
+    <t>gMyeloid_XW5101_v7.0.docx</t>
+  </si>
+  <si>
+    <t>gMyeloid_MEN1_XW5101_v5.0.docx</t>
+  </si>
+  <si>
+    <t>gMyeloid_59_XW5101_v4.0.docx</t>
+  </si>
+  <si>
+    <t>BG（组织）</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW4303_v2.0.docx</t>
+  </si>
+  <si>
+    <t>临沂市肿瘤医院-SF2</t>
+  </si>
+  <si>
+    <t>MRD_CustomEdition_LYZL_v1.0.docx</t>
+  </si>
+  <si>
+    <t>2025.09.19</t>
+  </si>
+  <si>
+    <t>XW2305</t>
+  </si>
+  <si>
+    <t>gLC10_XW2305_v1.0.docx</t>
+  </si>
+  <si>
+    <t>2025.09.29</t>
+  </si>
+  <si>
+    <t>tLC10_XW2305_v1.0.docx</t>
+  </si>
+  <si>
+    <t>XW5302</t>
+  </si>
+  <si>
+    <t>gOncoPro_XW5302_v1.0.docx</t>
+  </si>
+  <si>
+    <t>2025.10.13</t>
+  </si>
+  <si>
+    <t>XW4217</t>
+  </si>
+  <si>
+    <t>tLC10_XW4217_v1.0.docx</t>
+  </si>
+  <si>
+    <t>2025.10.15</t>
+  </si>
+  <si>
+    <t>gLC10_XW4217_v1.0.docx</t>
+  </si>
+  <si>
+    <t>XW7601</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW7601_v1.0.docx</t>
+  </si>
+  <si>
+    <t>2025.10.21</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW6701_v6.0.docx</t>
+  </si>
+  <si>
+    <t>XW6701-Focus</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW6701_3gene_v1.0.docx</t>
+  </si>
+  <si>
+    <t>tOncoPro_XW0258_v2.0.docx</t>
+  </si>
+  <si>
+    <t>2025.10.28</t>
+  </si>
+  <si>
+    <t>Classic_XW2404_v3.0.docx</t>
+  </si>
+  <si>
+    <t>2025.11.10</t>
+  </si>
+  <si>
+    <t>tLC10_XW4205_v3.0.docx</t>
+  </si>
+  <si>
+    <t>225.11.20</t>
+  </si>
+  <si>
+    <t>MRD_v1.4.docx</t>
+  </si>
+  <si>
+    <t>2025.12.02</t>
+  </si>
+  <si>
+    <t>XW4211</t>
+  </si>
+  <si>
+    <t>tLC10_XW4211_v1.0.docx</t>
+  </si>
+  <si>
+    <t>gLC10_XW4211_v1.0.docx</t>
+  </si>
+  <si>
     <t>docx_template</t>
   </si>
   <si>
@@ -1036,9 +1300,6 @@
   </si>
   <si>
     <t>套餐106</t>
-  </si>
-  <si>
-    <t>HRD Complete（组织）</t>
   </si>
   <si>
     <t>套餐91</t>
@@ -1618,12 +1879,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1644,7 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,13 +1917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799920651875362"/>
+        <fgColor theme="8" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,8 +2492,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2646,12 +2907,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2717,11 +2978,11 @@
       <c r="O1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="31" customFormat="1" spans="1:14">
+    <row r="2" s="31" customFormat="1" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2759,7 +3020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="31" customFormat="1" spans="1:14">
+    <row r="3" s="31" customFormat="1" spans="1:16">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2797,7 +3058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" s="31" customFormat="1" spans="1:14">
+    <row r="4" s="31" customFormat="1" spans="1:16">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2835,7 +3096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="31" customFormat="1" spans="1:14">
+    <row r="5" s="31" customFormat="1" spans="1:16">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2873,7 +3134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" s="31" customFormat="1" spans="1:14">
+    <row r="6" s="31" customFormat="1" spans="1:16">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2911,7 +3172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +3210,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2987,7 +3248,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3025,7 +3286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -3063,7 +3324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3101,7 +3362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3139,7 +3400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3174,7 +3435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -3209,7 +3470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3244,7 +3505,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3279,7 +3540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -3314,7 +3575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -3349,7 +3610,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3384,7 +3645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3511,7 +3772,7 @@
       <c r="E23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H23">
@@ -3526,10 +3787,10 @@
       <c r="M23" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="35" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3564,18 +3825,18 @@
       <c r="M24" t="s">
         <v>41</v>
       </c>
-      <c r="N24" s="34" t="s">
+      <c r="N24" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="O24" s="34" t="s">
+      <c r="O24" s="35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C25" t="s">
@@ -3602,15 +3863,15 @@
       <c r="M25" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C26" t="s">
@@ -3637,11 +3898,11 @@
       <c r="M26" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="34" t="s">
+      <c r="N26" s="35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -3672,11 +3933,11 @@
       <c r="M27" t="s">
         <v>41</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -3707,11 +3968,11 @@
       <c r="M28" t="s">
         <v>41</v>
       </c>
-      <c r="N28" s="34" t="s">
+      <c r="N28" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -3727,7 +3988,7 @@
       <c r="E29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="35" t="s">
         <v>96</v>
       </c>
       <c r="H29">
@@ -3742,7 +4003,7 @@
       <c r="M29" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="35" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3822,7 +4083,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -3857,7 +4118,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3892,7 +4153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -3927,7 +4188,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -3965,11 +4226,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C36" t="s">
@@ -3996,18 +4257,18 @@
       <c r="M36" t="s">
         <v>41</v>
       </c>
-      <c r="N36" s="34" t="s">
+      <c r="N36" s="35" t="s">
         <v>113</v>
       </c>
       <c r="O36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C37" t="s">
@@ -4034,14 +4295,14 @@
       <c r="M37" t="s">
         <v>41</v>
       </c>
-      <c r="N37" s="34" t="s">
+      <c r="N37" s="35" t="s">
         <v>113</v>
       </c>
       <c r="O37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -4079,7 +4340,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -4151,7 +4412,7 @@
       <c r="N40" t="s">
         <v>121</v>
       </c>
-      <c r="P40" s="34" t="s">
+      <c r="P40" s="35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4192,7 +4453,7 @@
       <c r="O41" t="s">
         <v>102</v>
       </c>
-      <c r="P41" s="34" t="s">
+      <c r="P41" s="35" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4233,7 +4494,7 @@
       <c r="O42" t="s">
         <v>119</v>
       </c>
-      <c r="P42" s="34" t="s">
+      <c r="P42" s="35" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4274,7 +4535,7 @@
       <c r="O43" t="s">
         <v>117</v>
       </c>
-      <c r="P43" s="34" t="s">
+      <c r="P43" s="35" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4294,7 +4555,7 @@
       <c r="E44" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="35" t="s">
         <v>130</v>
       </c>
       <c r="H44">
@@ -4309,17 +4570,17 @@
       <c r="M44" t="s">
         <v>41</v>
       </c>
-      <c r="N44" s="34" t="s">
+      <c r="N44" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="O44" s="34" t="s">
+      <c r="O44" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="P44" s="34" t="s">
+      <c r="P44" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="1:16">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -4353,7 +4614,7 @@
       <c r="N45" t="s">
         <v>134</v>
       </c>
-      <c r="P45" s="34" t="s">
+      <c r="P45" s="35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4373,7 +4634,7 @@
       <c r="E46" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" s="35" t="s">
         <v>135</v>
       </c>
       <c r="H46">
@@ -4394,7 +4655,7 @@
       <c r="O46" t="s">
         <v>102</v>
       </c>
-      <c r="P46" s="34" t="s">
+      <c r="P46" s="35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4414,7 +4675,7 @@
       <c r="E47" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" s="35" t="s">
         <v>137</v>
       </c>
       <c r="H47">
@@ -4435,11 +4696,11 @@
       <c r="O47" t="s">
         <v>102</v>
       </c>
-      <c r="P47" s="34" t="s">
+      <c r="P47" s="35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -4477,7 +4738,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -4515,7 +4776,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -4542,7 +4803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:16">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -4579,11 +4840,11 @@
       <c r="O51" t="s">
         <v>147</v>
       </c>
-      <c r="P51" s="34" t="s">
+      <c r="P51" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" customFormat="1" spans="1:14">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -4618,7 +4879,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -4653,7 +4914,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4688,7 +4949,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -4723,7 +4984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -4758,7 +5019,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -4796,7 +5057,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -4834,7 +5095,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -4850,7 +5111,7 @@
       <c r="E59" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="35" t="s">
         <v>164</v>
       </c>
       <c r="H59">
@@ -4872,7 +5133,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -4910,7 +5171,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -4948,7 +5209,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -4986,7 +5247,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -5024,7 +5285,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -5100,7 +5361,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -5135,7 +5396,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>179</v>
       </c>
@@ -5170,7 +5431,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -5205,7 +5466,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -5240,7 +5501,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -5275,7 +5536,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -5310,7 +5571,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -5345,7 +5606,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -5361,7 +5622,6 @@
       <c r="E73" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F73"/>
       <c r="G73" t="s">
         <v>192</v>
       </c>
@@ -5381,7 +5641,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -5397,7 +5657,6 @@
       <c r="E74" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F74"/>
       <c r="G74" t="s">
         <v>194</v>
       </c>
@@ -5417,7 +5676,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>105</v>
       </c>
@@ -5433,7 +5692,6 @@
       <c r="E75" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F75"/>
       <c r="G75" t="s">
         <v>195</v>
       </c>
@@ -5453,7 +5711,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -5469,7 +5727,6 @@
       <c r="E76" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F76"/>
       <c r="G76" t="s">
         <v>196</v>
       </c>
@@ -5489,7 +5746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:14">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -5524,7 +5781,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" customFormat="1" spans="1:14">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -5559,7 +5816,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" customFormat="1" spans="1:15">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -5597,11 +5854,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="1:15">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C80" t="s">
@@ -5635,11 +5892,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" customFormat="1" spans="1:15">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C81" t="s">
@@ -5673,7 +5930,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -5705,7 +5962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" customFormat="1" spans="1:15">
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -5743,7 +6000,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -5772,22 +6029,2034 @@
         <v>211</v>
       </c>
     </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>41</v>
+      </c>
+      <c r="M85" t="s">
+        <v>41</v>
+      </c>
+      <c r="N85" t="s">
+        <v>213</v>
+      </c>
+      <c r="O85" t="s">
+        <v>203</v>
+      </c>
+      <c r="P85" s="35"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" t="s">
+        <v>215</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>41</v>
+      </c>
+      <c r="M86" t="s">
+        <v>41</v>
+      </c>
+      <c r="N86" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>215</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>41</v>
+      </c>
+      <c r="M87" t="s">
+        <v>41</v>
+      </c>
+      <c r="N87" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>215</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M88" t="s">
+        <v>41</v>
+      </c>
+      <c r="N88" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>217</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>41</v>
+      </c>
+      <c r="M89" t="s">
+        <v>41</v>
+      </c>
+      <c r="N89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>220</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>41</v>
+      </c>
+      <c r="M90" t="s">
+        <v>41</v>
+      </c>
+      <c r="N90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>217</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>41</v>
+      </c>
+      <c r="M91" t="s">
+        <v>41</v>
+      </c>
+      <c r="N91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" t="s">
+        <v>217</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>41</v>
+      </c>
+      <c r="M92" t="s">
+        <v>41</v>
+      </c>
+      <c r="N92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>222</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>41</v>
+      </c>
+      <c r="M93" t="s">
+        <v>41</v>
+      </c>
+      <c r="N93" t="s">
+        <v>223</v>
+      </c>
+      <c r="O93" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>227</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>41</v>
+      </c>
+      <c r="M94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="s">
+        <v>225</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>229</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>41</v>
+      </c>
+      <c r="M95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>231</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>41</v>
+      </c>
+      <c r="M96" t="s">
+        <v>41</v>
+      </c>
+      <c r="N96" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>233</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>41</v>
+      </c>
+      <c r="M97" t="s">
+        <v>41</v>
+      </c>
+      <c r="N97" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>235</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>41</v>
+      </c>
+      <c r="M98" t="s">
+        <v>41</v>
+      </c>
+      <c r="N98" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>237</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>41</v>
+      </c>
+      <c r="M99" t="s">
+        <v>41</v>
+      </c>
+      <c r="N99" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>238</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>41</v>
+      </c>
+      <c r="M100" t="s">
+        <v>41</v>
+      </c>
+      <c r="N100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="27"/>
+      <c r="G101" t="s">
+        <v>240</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>41</v>
+      </c>
+      <c r="M101" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>242</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>41</v>
+      </c>
+      <c r="M102" t="s">
+        <v>41</v>
+      </c>
+      <c r="N102" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>244</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>41</v>
+      </c>
+      <c r="M103" t="s">
+        <v>41</v>
+      </c>
+      <c r="N103" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="27"/>
+      <c r="G104" t="s">
+        <v>245</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>41</v>
+      </c>
+      <c r="M104" t="s">
+        <v>41</v>
+      </c>
+      <c r="N104" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>246</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>41</v>
+      </c>
+      <c r="M105" t="s">
+        <v>41</v>
+      </c>
+      <c r="N105" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>246</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>41</v>
+      </c>
+      <c r="M106" t="s">
+        <v>41</v>
+      </c>
+      <c r="N106" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>246</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>41</v>
+      </c>
+      <c r="M107" t="s">
+        <v>41</v>
+      </c>
+      <c r="N107" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>248</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>41</v>
+      </c>
+      <c r="M108" t="s">
+        <v>41</v>
+      </c>
+      <c r="N108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>250</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>41</v>
+      </c>
+      <c r="M109" t="s">
+        <v>41</v>
+      </c>
+      <c r="N109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>251</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>41</v>
+      </c>
+      <c r="M110" t="s">
+        <v>41</v>
+      </c>
+      <c r="N110" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>253</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>41</v>
+      </c>
+      <c r="M111" t="s">
+        <v>41</v>
+      </c>
+      <c r="N111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>41</v>
+      </c>
+      <c r="M112" t="s">
+        <v>41</v>
+      </c>
+      <c r="N112" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>41</v>
+      </c>
+      <c r="M113" t="s">
+        <v>41</v>
+      </c>
+      <c r="N113" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
+        <v>41</v>
+      </c>
+      <c r="M114" t="s">
+        <v>41</v>
+      </c>
+      <c r="N114" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>41</v>
+      </c>
+      <c r="M115" t="s">
+        <v>41</v>
+      </c>
+      <c r="N115" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>41</v>
+      </c>
+      <c r="M116" t="s">
+        <v>41</v>
+      </c>
+      <c r="N116" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>171</v>
+      </c>
+      <c r="C117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>41</v>
+      </c>
+      <c r="M117" t="s">
+        <v>41</v>
+      </c>
+      <c r="N117" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>262</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
+        <v>41</v>
+      </c>
+      <c r="M118" t="s">
+        <v>41</v>
+      </c>
+      <c r="N118" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" customFormat="1" spans="1:14">
+      <c r="A119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>264</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>41</v>
+      </c>
+      <c r="M119" t="s">
+        <v>41</v>
+      </c>
+      <c r="N119" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:14">
+      <c r="A120" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>265</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>41</v>
+      </c>
+      <c r="M120" t="s">
+        <v>41</v>
+      </c>
+      <c r="N120" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:14">
+      <c r="A121" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>266</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
+        <v>41</v>
+      </c>
+      <c r="M121" t="s">
+        <v>41</v>
+      </c>
+      <c r="N121" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
+        <v>267</v>
+      </c>
+      <c r="B122" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>268</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>41</v>
+      </c>
+      <c r="M122" t="s">
+        <v>41</v>
+      </c>
+      <c r="N122" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>269</v>
+      </c>
+      <c r="G123" t="s">
+        <v>270</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>41</v>
+      </c>
+      <c r="M123" t="s">
+        <v>41</v>
+      </c>
+      <c r="N123" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>273</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>41</v>
+      </c>
+      <c r="M124" t="s">
+        <v>41</v>
+      </c>
+      <c r="N124" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>275</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>41</v>
+      </c>
+      <c r="M125" t="s">
+        <v>41</v>
+      </c>
+      <c r="N125" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
+        <v>277</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>41</v>
+      </c>
+      <c r="M126" t="s">
+        <v>41</v>
+      </c>
+      <c r="N126" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
+        <v>85</v>
+      </c>
+      <c r="B127" t="s">
+        <v>279</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>41</v>
+      </c>
+      <c r="M127" t="s">
+        <v>41</v>
+      </c>
+      <c r="N127" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" t="s">
+        <v>279</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>282</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>41</v>
+      </c>
+      <c r="M128" t="s">
+        <v>41</v>
+      </c>
+      <c r="N128" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>284</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>41</v>
+      </c>
+      <c r="M129" t="s">
+        <v>41</v>
+      </c>
+      <c r="N129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>214</v>
+      </c>
+      <c r="B130" t="s">
+        <v>283</v>
+      </c>
+      <c r="C130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
+        <v>284</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>41</v>
+      </c>
+      <c r="M130" t="s">
+        <v>41</v>
+      </c>
+      <c r="N130" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" t="s">
+        <v>186</v>
+      </c>
+      <c r="C131" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>286</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>41</v>
+      </c>
+      <c r="M131" t="s">
+        <v>41</v>
+      </c>
+      <c r="N131" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>186</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>286</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>41</v>
+      </c>
+      <c r="M132" t="s">
+        <v>41</v>
+      </c>
+      <c r="N132" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" t="s">
+        <v>214</v>
+      </c>
+      <c r="B133" t="s">
+        <v>186</v>
+      </c>
+      <c r="C133" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
+        <v>286</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>41</v>
+      </c>
+      <c r="M133" t="s">
+        <v>41</v>
+      </c>
+      <c r="N133" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>287</v>
+      </c>
+      <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>288</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>41</v>
+      </c>
+      <c r="M134" t="s">
+        <v>41</v>
+      </c>
+      <c r="N134" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>288</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>41</v>
+      </c>
+      <c r="M135" t="s">
+        <v>41</v>
+      </c>
+      <c r="N135" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" t="s">
+        <v>214</v>
+      </c>
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>288</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>41</v>
+      </c>
+      <c r="M136" t="s">
+        <v>41</v>
+      </c>
+      <c r="N136" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="137" ht="13" customHeight="1" spans="1:14">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>289</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>41</v>
+      </c>
+      <c r="M137" t="s">
+        <v>41</v>
+      </c>
+      <c r="N137" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" customFormat="1" spans="1:14">
+      <c r="A138" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>41</v>
+      </c>
+      <c r="M138" t="s">
+        <v>41</v>
+      </c>
+      <c r="N138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" t="s">
+        <v>85</v>
+      </c>
+      <c r="B139" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>41</v>
+      </c>
+      <c r="M139" t="s">
+        <v>41</v>
+      </c>
+      <c r="N139" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>143</v>
+      </c>
+      <c r="G140" t="s">
+        <v>295</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>41</v>
+      </c>
+      <c r="M140" t="s">
+        <v>41</v>
+      </c>
+      <c r="N140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>298</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>41</v>
+      </c>
+      <c r="M141" t="s">
+        <v>41</v>
+      </c>
+      <c r="N141" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" t="s">
+        <v>297</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>299</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>41</v>
+      </c>
+      <c r="M142" t="s">
+        <v>41</v>
+      </c>
+      <c r="N142" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:P84" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:P140" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 H50 I50 H84 I84 H2:I49 H51:I83 H85:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 H123:I123 H140:H142 I140:I142 H2:I122 H124:I139 H143:I1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50 C84 C2:C49 C51:C83 C85:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A141 A142 A2:A140 A143:A1048576">
+      <formula1>prod_name!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C141 C142 C2:C140 C143:C1048576">
       <formula1>"临检,进院"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50 D84 D2:D49 D51:D83 D85:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D141 D142 D2:D140 D143:D1048576">
       <formula1>"定制,通用,通用-完整,通用-简版"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>prod_name!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5823,37 +8092,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5884,266 +8153,266 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="B2" s="29">
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="B3" s="29">
         <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="B4" s="29">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="B5" s="29">
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="B6" s="29">
         <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="B7" s="29">
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="B8" s="29">
         <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>327</v>
       </c>
       <c r="B9" s="29">
         <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>329</v>
       </c>
       <c r="B10" s="29">
         <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="B11" s="29">
         <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="B12" s="29">
         <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="B13" s="29">
         <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="B14" s="29">
         <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>339</v>
       </c>
       <c r="B15" s="29">
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c r="B16" s="29">
         <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>343</v>
       </c>
       <c r="B17" s="29">
         <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>345</v>
       </c>
       <c r="B18" s="29">
         <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="B19" s="29">
         <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="B20" s="29">
         <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="B21" s="29">
         <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="B22" s="29">
         <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
       <c r="B23" s="29">
         <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>269</v>
+        <v>357</v>
       </c>
       <c r="B24" s="29">
         <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>270</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6169,15 +8438,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>272</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>24</v>
@@ -6185,7 +8454,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -6193,7 +8462,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -6201,111 +8470,111 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="28" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="28" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="28" t="s">
-        <v>280</v>
+        <v>368</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="28" t="s">
-        <v>282</v>
+        <v>370</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="28" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="28" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>287</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="28" t="s">
-        <v>288</v>
+        <v>376</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="28" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>291</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="28" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="28" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="28" t="s">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="28" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>63</v>
@@ -6313,7 +8582,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="28" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>63</v>
@@ -6321,15 +8590,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="28" t="s">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="28" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -6337,31 +8606,31 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="28" t="s">
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="28" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="28" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>36</v>
@@ -6369,18 +8638,18 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="28" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="28" t="s">
-        <v>311</v>
+        <v>398</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -6393,10 +8662,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -6417,37 +8686,37 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -6457,17 +8726,17 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -6477,12 +8746,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -6497,122 +8766,122 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>291</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="26" t="s">
-        <v>290</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -6622,17 +8891,17 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -6717,7 +8986,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:1">
@@ -6728,6 +8997,21 @@
     <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6758,9 +9042,9 @@
     <col min="10" max="10" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="17" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6768,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6776,15 +9060,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6792,7 +9076,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6800,7 +9084,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6808,7 +9092,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6816,7 +9100,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6824,7 +9108,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6832,7 +9116,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6840,7 +9124,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6848,25 +9132,25 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="18" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6877,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>4</v>
@@ -6904,7 +9188,7 @@
         <v>14</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:12">
@@ -6918,26 +9202,26 @@
         <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>356</v>
+        <v>443</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="L18" s="3"/>
     </row>
@@ -6954,22 +9238,22 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="L19" s="3"/>
     </row>
@@ -6981,27 +9265,27 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>362</v>
+        <v>449</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="L20" s="3"/>
     </row>
@@ -7010,34 +9294,34 @@
         <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>365</v>
+        <v>452</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>366</v>
+        <v>453</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="L21" s="3"/>
     </row>
@@ -7046,72 +9330,72 @@
         <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>365</v>
+        <v>452</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="25" ht="15.5" spans="1:1">
+    <row r="25" ht="15.5" spans="1:12">
       <c r="A25" s="23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" ht="15.5" spans="1:2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="1:12">
       <c r="A26" s="24" t="s">
-        <v>373</v>
+        <v>460</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" ht="15.5" spans="1:2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="1:12">
       <c r="A27" s="23" t="s">
-        <v>375</v>
+        <v>462</v>
       </c>
       <c r="B27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" ht="15.5" spans="1:2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="1:12">
       <c r="A28" s="23" t="s">
-        <v>377</v>
+        <v>464</v>
       </c>
       <c r="B28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" ht="15.5" spans="1:2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="1:12">
       <c r="A29" s="25" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="30" ht="15.5" spans="1:2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="1:12">
       <c r="A30" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>376</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -7145,16 +9429,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>381</v>
+        <v>468</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>382</v>
+        <v>469</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>383</v>
+        <v>470</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>14</v>
@@ -7165,78 +9449,78 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>384</v>
+        <v>471</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>385</v>
+        <v>472</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>386</v>
+        <v>473</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>387</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
-        <v>388</v>
+        <v>475</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>390</v>
+        <v>477</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>391</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
-        <v>369</v>
+        <v>456</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>392</v>
+        <v>479</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>393</v>
+        <v>480</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>394</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
-        <v>395</v>
+        <v>482</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>400</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -7261,81 +9545,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:6">
       <c r="C5" t="s">
-        <v>401</v>
+        <v>488</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
       <c r="C7" s="1" t="s">
-        <v>403</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="2" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="2" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="4" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>405</v>
+        <v>492</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>406</v>
+        <v>493</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>407</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="3:6">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>408</v>
+        <v>495</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>409</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="3:6">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
-        <v>410</v>
+        <v>497</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>411</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="3:6">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>412</v>
+        <v>499</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>413</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -7346,23 +9630,23 @@
     </row>
     <row r="15" spans="3:6">
       <c r="C15" s="4" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>414</v>
+        <v>501</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>415</v>
+        <v>502</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>416</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>417</v>
+        <v>504</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -7370,7 +9654,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
-        <v>418</v>
+        <v>505</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -7378,7 +9662,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3" t="s">
-        <v>419</v>
+        <v>506</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -7386,7 +9670,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3" t="s">
-        <v>420</v>
+        <v>507</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -7394,19 +9678,19 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>421</v>
+        <v>508</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="4" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>422</v>
+        <v>509</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>423</v>
+        <v>510</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -7414,7 +9698,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3" t="s">
-        <v>424</v>
+        <v>511</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -7422,13 +9706,13 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
-        <v>425</v>
+        <v>512</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="3" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>14</v>
@@ -7438,17 +9722,17 @@
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="3" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>426</v>
+        <v>513</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="3" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="3"/>
@@ -7456,7 +9740,7 @@
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="3" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="3"/>
@@ -7464,7 +9748,7 @@
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="3" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="3"/>
@@ -7472,7 +9756,7 @@
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="3" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="3"/>
@@ -7480,19 +9764,19 @@
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="9" t="s">
-        <v>427</v>
+        <v>514</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>428</v>
+        <v>515</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>429</v>
+        <v>516</v>
       </c>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="11" t="s">
-        <v>403</v>
+        <v>490</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -7500,29 +9784,29 @@
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="12" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="12" t="s">
-        <v>430</v>
+        <v>517</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>431</v>
+        <v>518</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>432</v>
+        <v>519</v>
       </c>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="12" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>14</v>
